--- a/target/test-classes/Excel/MainProject.xlsx
+++ b/target/test-classes/Excel/MainProject.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\eclipse-workspace\adactinhotel\src\test\resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67645DD-8735-4DDB-8262-4CC79D188BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40FD660-DFE3-41F7-9ACB-8DBB505E5AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C8AC6EF2-2091-4F78-A376-444546ABCDDE}"/>
   </bookViews>
@@ -317,10 +317,10 @@
     <t>456</t>
   </si>
   <si>
-    <t>Joyson007</t>
-  </si>
-  <si>
-    <t>Joyson008@gmail.com</t>
+    <t>Joyson009</t>
+  </si>
+  <si>
+    <t>Joyson009@gmail.com</t>
   </si>
 </sst>
 </file>
